--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32480E5-9D5F-45E4-B829-EDAC5984D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3822EC-0E15-4BC0-A632-85A630706038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -217,6 +209,12 @@
   </si>
   <si>
     <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -453,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,6 +591,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -906,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1235,12 +1236,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1262,62 +1263,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1343,18 +1344,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1401,7 +1402,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1411,7 +1412,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1710,9 +1711,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="39"/>
+      <c r="D23" s="39">
+        <v>1</v>
+      </c>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
@@ -1722,10 +1727,14 @@
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="48">
+        <v>44917</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="49" t="s">
+        <v>55</v>
+      </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -1738,42 +1747,62 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="48"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="48">
+        <v>44939</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="39">
+        <v>1</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="48">
+        <v>44974</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="40">
+        <v>44986</v>
+      </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -1789,7 +1818,9 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
+      <c r="A28" s="40">
+        <v>45017</v>
+      </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
@@ -1805,7 +1836,9 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
+      <c r="A29" s="40">
+        <v>45047</v>
+      </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -1821,7 +1854,9 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45078</v>
+      </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -1837,7 +1872,9 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
+      <c r="A31" s="40">
+        <v>45108</v>
+      </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
@@ -1853,7 +1890,9 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
+      <c r="A32" s="40">
+        <v>45139</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -1869,7 +1908,9 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45170</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -1885,7 +1926,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+      <c r="A34" s="40">
+        <v>45200</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -1901,7 +1944,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45231</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -1917,7 +1962,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
+      <c r="A36" s="40">
+        <v>45261</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -1933,7 +1980,9 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>45292</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -1949,7 +1998,9 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45323</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -1965,7 +2016,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45352</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -1981,7 +2034,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45383</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -1997,7 +2052,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45413</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -2013,7 +2070,9 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45444</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -2029,7 +2088,9 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>45474</v>
+      </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
@@ -2045,7 +2106,9 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40">
+        <v>45505</v>
+      </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
       <c r="D44" s="39"/>
@@ -2061,7 +2124,9 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>45536</v>
+      </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
       <c r="D45" s="39"/>
@@ -2077,7 +2142,9 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>45566</v>
+      </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
@@ -2093,7 +2160,9 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45597</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -2109,7 +2178,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45627</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -2125,7 +2196,9 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>45658</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -2141,7 +2214,9 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45689</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
@@ -2157,7 +2232,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>45717</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -2173,7 +2250,9 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>45748</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="39"/>
@@ -2189,7 +2268,9 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>45778</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
@@ -2205,7 +2286,9 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>45809</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
@@ -2221,7 +2304,9 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="40">
+        <v>45839</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -2237,7 +2322,9 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>45870</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -2253,7 +2340,9 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="40">
+        <v>45901</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="39"/>
@@ -2269,7 +2358,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>45931</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -2285,7 +2376,9 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>45962</v>
+      </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
       <c r="D59" s="39"/>
@@ -2301,7 +2394,9 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45992</v>
+      </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
@@ -2317,7 +2412,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>46023</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -2333,7 +2430,9 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>46054</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -2349,7 +2448,9 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>46082</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -2365,7 +2466,9 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>46113</v>
+      </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
       <c r="D64" s="39"/>
@@ -2381,7 +2484,9 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>46143</v>
+      </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
       <c r="D65" s="39"/>
@@ -2397,7 +2502,9 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>46174</v>
+      </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -2413,7 +2520,9 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>46204</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -2429,7 +2538,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>46235</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -2445,7 +2556,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>46266</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -2461,7 +2574,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>46296</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -2477,7 +2592,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>46327</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -2493,7 +2610,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>46357</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -2509,7 +2628,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>46388</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -2525,7 +2646,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>46419</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -2541,7 +2664,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>46447</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -2557,7 +2682,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>46478</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -2573,7 +2700,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>46508</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -2589,7 +2718,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>46539</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -2605,7 +2736,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>46569</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -2621,7 +2754,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>46600</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -2637,7 +2772,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>46631</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -2653,7 +2790,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>46661</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -2669,7 +2808,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>46692</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -2685,7 +2826,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>46722</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2701,7 +2844,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>46753</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -2717,7 +2862,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>46784</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -2733,7 +2880,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>46813</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -2749,7 +2898,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>46844</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -2765,7 +2916,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>46874</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -2781,7 +2934,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>46905</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -2797,7 +2952,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>46935</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -2813,7 +2970,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>46966</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -2829,7 +2988,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>46997</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -2845,7 +3006,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>47027</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -2861,7 +3024,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>47058</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -2877,7 +3042,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>47088</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -2893,7 +3060,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>47119</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -2909,7 +3078,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>47150</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -2925,7 +3096,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>47178</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -2941,7 +3114,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>47209</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -2957,7 +3132,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>47239</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -2973,7 +3150,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>47270</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -2989,7 +3168,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>47300</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3005,7 +3186,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>47331</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3021,7 +3204,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>47362</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3037,7 +3222,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>47392</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3053,7 +3240,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>47423</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3069,7 +3258,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>47453</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3085,7 +3276,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>47484</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3101,7 +3294,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>47515</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3117,7 +3312,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>47543</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3133,7 +3330,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>47574</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3149,7 +3348,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>47604</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3165,7 +3366,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>47635</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3181,7 +3384,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>47665</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3197,7 +3402,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>47696</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3213,7 +3420,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>47727</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3229,7 +3438,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>47757</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3245,7 +3456,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>47788</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3261,7 +3474,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>47818</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3277,7 +3492,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>47849</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3293,7 +3510,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>47880</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3309,7 +3528,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>47908</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3325,7 +3546,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>47939</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3341,7 +3564,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>47969</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -3357,7 +3582,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>48000</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -3373,7 +3600,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>48030</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -3389,7 +3618,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>48061</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -3405,7 +3636,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>48092</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -3421,20 +3654,58 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40">
+        <v>48122</v>
+      </c>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40">
+        <v>48183</v>
+      </c>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3450,7 +3721,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -3467,8 +3738,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                              OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3499,17 +3770,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -3584,12 +3855,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3822EC-0E15-4BC0-A632-85A630706038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,11 +215,14 @@
   <si>
     <t>SP(1-0-0)</t>
   </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -861,7 +863,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -907,25 +908,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1232,34 +1233,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1281,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1299,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1320,7 +1321,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1328,7 +1329,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1341,7 +1342,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1358,7 +1359,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1402,7 +1403,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1412,12 +1413,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>43</v>
       </c>
@@ -1439,7 +1440,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -1459,7 +1460,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -1505,7 +1506,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -1525,7 +1526,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -1545,7 +1546,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>44774</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44805</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -1615,7 +1616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>48</v>
@@ -1637,7 +1638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44835</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44866</v>
       </c>
@@ -1683,7 +1684,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44896</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -1731,7 +1732,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>55</v>
       </c>
@@ -1749,7 +1750,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44927</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44958</v>
       </c>
@@ -1799,25 +1800,31 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44986</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D27" s="39"/>
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G27" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="48">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>45017</v>
       </c>
@@ -1835,7 +1842,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>45047</v>
       </c>
@@ -1853,7 +1860,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45078</v>
       </c>
@@ -1871,7 +1878,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45108</v>
       </c>
@@ -1889,7 +1896,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45139</v>
       </c>
@@ -1907,7 +1914,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>45170</v>
       </c>
@@ -1925,7 +1932,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>45200</v>
       </c>
@@ -1943,7 +1950,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>45231</v>
       </c>
@@ -1961,7 +1968,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45261</v>
       </c>
@@ -1979,7 +1986,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45292</v>
       </c>
@@ -1997,7 +2004,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45323</v>
       </c>
@@ -2015,7 +2022,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45352</v>
       </c>
@@ -2033,7 +2040,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45383</v>
       </c>
@@ -2051,7 +2058,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45413</v>
       </c>
@@ -2069,7 +2076,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45444</v>
       </c>
@@ -2087,7 +2094,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45474</v>
       </c>
@@ -2105,7 +2112,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45505</v>
       </c>
@@ -2123,7 +2130,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45536</v>
       </c>
@@ -2141,7 +2148,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45566</v>
       </c>
@@ -2159,7 +2166,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45597</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45627</v>
       </c>
@@ -2195,7 +2202,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45658</v>
       </c>
@@ -2213,7 +2220,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45689</v>
       </c>
@@ -2231,7 +2238,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45717</v>
       </c>
@@ -2249,7 +2256,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45748</v>
       </c>
@@ -2267,7 +2274,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45778</v>
       </c>
@@ -2285,7 +2292,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45809</v>
       </c>
@@ -2303,7 +2310,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45839</v>
       </c>
@@ -2321,7 +2328,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45870</v>
       </c>
@@ -2339,7 +2346,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45901</v>
       </c>
@@ -2357,7 +2364,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45931</v>
       </c>
@@ -2375,7 +2382,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45962</v>
       </c>
@@ -2393,7 +2400,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45992</v>
       </c>
@@ -2411,7 +2418,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>46023</v>
       </c>
@@ -2429,7 +2436,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>46054</v>
       </c>
@@ -2447,7 +2454,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>46082</v>
       </c>
@@ -2465,7 +2472,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>46113</v>
       </c>
@@ -2483,7 +2490,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>46143</v>
       </c>
@@ -2501,7 +2508,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>46174</v>
       </c>
@@ -2519,7 +2526,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>46204</v>
       </c>
@@ -2537,7 +2544,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>46235</v>
       </c>
@@ -2555,7 +2562,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>46266</v>
       </c>
@@ -2573,7 +2580,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>46296</v>
       </c>
@@ -2591,7 +2598,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>46327</v>
       </c>
@@ -2609,7 +2616,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>46357</v>
       </c>
@@ -2627,7 +2634,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>46388</v>
       </c>
@@ -2645,7 +2652,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>46419</v>
       </c>
@@ -2663,7 +2670,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>46447</v>
       </c>
@@ -2681,7 +2688,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>46478</v>
       </c>
@@ -2699,7 +2706,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>46508</v>
       </c>
@@ -2717,7 +2724,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>46539</v>
       </c>
@@ -2735,7 +2742,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46569</v>
       </c>
@@ -2753,7 +2760,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46600</v>
       </c>
@@ -2771,7 +2778,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46631</v>
       </c>
@@ -2789,7 +2796,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46661</v>
       </c>
@@ -2807,7 +2814,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46692</v>
       </c>
@@ -2825,7 +2832,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46722</v>
       </c>
@@ -2843,7 +2850,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46753</v>
       </c>
@@ -2861,7 +2868,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46784</v>
       </c>
@@ -2879,7 +2886,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46813</v>
       </c>
@@ -2897,7 +2904,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46844</v>
       </c>
@@ -2915,7 +2922,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46874</v>
       </c>
@@ -2933,7 +2940,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46905</v>
       </c>
@@ -2951,7 +2958,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46935</v>
       </c>
@@ -2969,7 +2976,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46966</v>
       </c>
@@ -2987,7 +2994,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46997</v>
       </c>
@@ -3005,7 +3012,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>47027</v>
       </c>
@@ -3023,7 +3030,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>47058</v>
       </c>
@@ -3041,7 +3048,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>47088</v>
       </c>
@@ -3059,7 +3066,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>47119</v>
       </c>
@@ -3077,7 +3084,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>47150</v>
       </c>
@@ -3095,7 +3102,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>47178</v>
       </c>
@@ -3113,7 +3120,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>47209</v>
       </c>
@@ -3131,7 +3138,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>47239</v>
       </c>
@@ -3149,7 +3156,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>47270</v>
       </c>
@@ -3167,7 +3174,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>47300</v>
       </c>
@@ -3185,7 +3192,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>47331</v>
       </c>
@@ -3203,7 +3210,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>47362</v>
       </c>
@@ -3221,7 +3228,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>47392</v>
       </c>
@@ -3239,7 +3246,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>47423</v>
       </c>
@@ -3257,7 +3264,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>47453</v>
       </c>
@@ -3275,7 +3282,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>47484</v>
       </c>
@@ -3293,7 +3300,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>47515</v>
       </c>
@@ -3311,7 +3318,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>47543</v>
       </c>
@@ -3329,7 +3336,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>47574</v>
       </c>
@@ -3347,7 +3354,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>47604</v>
       </c>
@@ -3365,7 +3372,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>47635</v>
       </c>
@@ -3383,7 +3390,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>47665</v>
       </c>
@@ -3401,7 +3408,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>47696</v>
       </c>
@@ -3419,7 +3426,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>47727</v>
       </c>
@@ -3437,7 +3444,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>47757</v>
       </c>
@@ -3455,7 +3462,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>47788</v>
       </c>
@@ -3473,7 +3480,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>47818</v>
       </c>
@@ -3491,7 +3498,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>47849</v>
       </c>
@@ -3509,7 +3516,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>47880</v>
       </c>
@@ -3527,7 +3534,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>47908</v>
       </c>
@@ -3545,7 +3552,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>47939</v>
       </c>
@@ -3563,7 +3570,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>47969</v>
       </c>
@@ -3581,7 +3588,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>48000</v>
       </c>
@@ -3599,7 +3606,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>48030</v>
       </c>
@@ -3617,7 +3624,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>48061</v>
       </c>
@@ -3635,7 +3642,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>48092</v>
       </c>
@@ -3653,7 +3660,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>48122</v>
       </c>
@@ -3671,7 +3678,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>48153</v>
       </c>
@@ -3689,7 +3696,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>48183</v>
       </c>
@@ -3722,10 +3729,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3748,28 +3755,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3782,7 +3789,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3811,7 +3818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3831,17 +3838,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3862,7 +3869,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3889,7 +3896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3967,7 +3974,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -3993,7 +4000,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4019,7 +4026,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4045,7 +4052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4071,7 +4078,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4091,7 +4098,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4131,7 +4138,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4152,7 +4159,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4194,7 +4201,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4215,7 +4222,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4257,7 +4264,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4299,7 +4306,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4320,7 +4327,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4341,7 +4348,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4425,7 +4432,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4467,7 +4474,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4488,7 +4495,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4530,7 +4537,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4551,7 +4558,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4560,7 +4567,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4569,7 +4576,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4578,7 +4585,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4587,7 +4594,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4596,7 +4603,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4605,7 +4612,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4614,7 +4621,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4623,7 +4630,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4632,7 +4639,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4641,7 +4648,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4650,7 +4657,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4659,7 +4666,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4668,7 +4675,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4677,7 +4684,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4686,7 +4693,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4695,7 +4702,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4704,7 +4711,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4713,7 +4720,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4722,7 +4729,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4731,7 +4738,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4740,7 +4747,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4749,7 +4756,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4758,7 +4765,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4767,7 +4774,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4776,7 +4783,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4785,7 +4792,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4794,7 +4801,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4803,7 +4810,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4812,7 +4819,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>SL EARNED</t>
-  </si>
-  <si>
-    <t>BAUTISTA JANICE</t>
   </si>
   <si>
     <r>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>BAUTISTA, JANICE</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1237,12 +1237,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
@@ -1304,14 +1304,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
@@ -1420,7 +1420,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1465,7 +1465,7 @@
         <v>44652</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -1483,7 +1483,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
       <c r="K12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>44774</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="42">
         <v>1.25</v>
@@ -1567,7 +1567,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>44805</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -1597,7 +1597,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
@@ -1613,13 +1613,13 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
@@ -1635,7 +1635,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>44835</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -1689,7 +1689,7 @@
         <v>44896</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -1713,7 +1713,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
@@ -1734,7 +1734,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1755,7 +1755,7 @@
         <v>44927</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -1779,7 +1779,7 @@
         <v>44958</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -1805,7 +1805,7 @@
         <v>44986</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -1825,10 +1825,10 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B28" s="20"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -1840,11 +1840,13 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="48">
+        <v>45002</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1862,7 +1864,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1880,7 +1882,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1898,7 +1900,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1916,7 +1918,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1934,7 +1936,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1952,7 +1954,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1970,7 +1972,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1988,7 +1990,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2006,7 +2008,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2024,7 +2026,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2042,7 +2044,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2060,7 +2062,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2078,7 +2080,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2096,7 +2098,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2114,7 +2116,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2132,7 +2134,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2150,7 +2152,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2168,7 +2170,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2186,7 +2188,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2204,7 +2206,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2222,7 +2224,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2240,7 +2242,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2258,7 +2260,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2276,7 +2278,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2294,7 +2296,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2312,7 +2314,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2330,7 +2332,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2348,7 +2350,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2366,7 +2368,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2384,7 +2386,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2402,7 +2404,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2420,7 +2422,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2438,7 +2440,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2456,7 +2458,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2474,7 +2476,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2492,7 +2494,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2510,7 +2512,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2528,7 +2530,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2546,7 +2548,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2564,7 +2566,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2582,7 +2584,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2600,7 +2602,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2618,7 +2620,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2636,7 +2638,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2654,7 +2656,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2672,7 +2674,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2690,7 +2692,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2708,7 +2710,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2726,7 +2728,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2744,7 +2746,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2762,7 +2764,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2780,7 +2782,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2798,7 +2800,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2816,7 +2818,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2834,7 +2836,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2852,7 +2854,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2870,7 +2872,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2888,7 +2890,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2906,7 +2908,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2924,7 +2926,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2942,7 +2944,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2960,7 +2962,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2978,7 +2980,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2996,7 +2998,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3014,7 +3016,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3032,7 +3034,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3050,7 +3052,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3068,7 +3070,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3086,7 +3088,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3104,7 +3106,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3122,7 +3124,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3140,7 +3142,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3158,7 +3160,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3176,7 +3178,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3194,7 +3196,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3212,7 +3214,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3230,7 +3232,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3248,7 +3250,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3266,7 +3268,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3284,7 +3286,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3302,7 +3304,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3320,7 +3322,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3338,7 +3340,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3356,7 +3358,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3374,7 +3376,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3392,7 +3394,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3410,7 +3412,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3428,7 +3430,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3446,7 +3448,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3464,7 +3466,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3482,7 +3484,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3500,7 +3502,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3518,7 +3520,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3536,7 +3538,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3554,7 +3556,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3572,7 +3574,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3590,7 +3592,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3608,7 +3610,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3626,7 +3628,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3644,7 +3646,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3662,7 +3664,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3680,7 +3682,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3698,21 +3700,39 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
         <v>48183</v>
       </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D689B-26E2-4596-929D-5A7CC859A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -908,25 +909,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1233,34 +1234,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A11" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A20" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1300,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1322,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1329,7 +1330,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1342,7 +1343,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1359,7 +1360,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1403,7 +1404,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1418,7 +1419,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1441,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -1460,7 +1461,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -1526,7 +1527,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -1546,7 +1547,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>44774</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44805</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -1616,7 +1617,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1638,7 +1639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44835</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44866</v>
       </c>
@@ -1684,7 +1685,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44896</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -1732,7 +1733,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1751,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44927</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44958</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44986</v>
       </c>
@@ -1824,7 +1825,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>55</v>
@@ -1844,13 +1845,15 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B29" s="20"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="39"/>
+      <c r="D29" s="39">
+        <v>1</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13" t="str">
@@ -1860,47 +1863,43 @@
       <c r="H29" s="39"/>
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="48">
+        <v>45036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G30" s="13"/>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="48"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G31" s="13"/>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1916,9 +1915,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1934,9 +1933,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1952,9 +1951,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1970,9 +1969,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1988,9 +1987,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -2006,9 +2005,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -2024,9 +2023,9 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -2042,9 +2041,9 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -2060,9 +2059,9 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -2078,9 +2077,9 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2096,9 +2095,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2114,9 +2113,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2132,9 +2131,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2150,9 +2149,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2168,9 +2167,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2186,9 +2185,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2204,9 +2203,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2222,9 +2221,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2240,9 +2239,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2258,9 +2257,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2276,9 +2275,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2294,9 +2293,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2312,9 +2311,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2330,9 +2329,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2348,9 +2347,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2366,9 +2365,9 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2384,9 +2383,9 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2402,9 +2401,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2420,9 +2419,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2438,9 +2437,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2456,9 +2455,9 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2474,9 +2473,9 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2492,9 +2491,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2510,9 +2509,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2528,9 +2527,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2546,9 +2545,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2564,9 +2563,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2582,9 +2581,9 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2600,9 +2599,9 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2618,9 +2617,9 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2636,9 +2635,9 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2654,9 +2653,9 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2672,9 +2671,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2690,9 +2689,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2708,9 +2707,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2726,9 +2725,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2744,9 +2743,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2762,9 +2761,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2780,9 +2779,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2798,9 +2797,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2816,9 +2815,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2834,9 +2833,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2852,9 +2851,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2870,9 +2869,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2888,9 +2887,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2906,9 +2905,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2924,9 +2923,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2942,9 +2941,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2960,9 +2959,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2978,9 +2977,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2996,9 +2995,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3014,9 +3013,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3032,9 +3031,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3050,9 +3049,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3068,9 +3067,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3086,9 +3085,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3104,9 +3103,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3122,9 +3121,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3140,9 +3139,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3158,9 +3157,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3176,9 +3175,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3194,9 +3193,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3212,9 +3211,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3230,9 +3229,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3248,9 +3247,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3266,9 +3265,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3284,9 +3283,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3302,9 +3301,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3320,9 +3319,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3338,9 +3337,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3356,9 +3355,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3374,9 +3373,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3392,9 +3391,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3410,9 +3409,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3428,9 +3427,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3446,9 +3445,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3464,9 +3463,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3482,9 +3481,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3500,9 +3499,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3518,9 +3517,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3536,9 +3535,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3554,9 +3553,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3572,9 +3571,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3590,9 +3589,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3608,9 +3607,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3626,9 +3625,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3644,9 +3643,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3662,9 +3661,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3680,9 +3679,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3698,9 +3697,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3716,23 +3715,41 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
+        <v>48153</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
         <v>48183</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3749,10 +3766,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3775,28 +3792,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3809,7 +3826,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3838,7 +3855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3858,17 +3875,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3889,7 +3906,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3916,7 +3933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3942,7 +3959,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3968,7 +3985,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -3994,7 +4011,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4020,7 +4037,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4046,7 +4063,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4072,7 +4089,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4098,7 +4115,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4118,7 +4135,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4138,7 +4155,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4158,7 +4175,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4179,7 +4196,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4200,7 +4217,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4221,7 +4238,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4242,7 +4259,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4263,7 +4280,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4284,7 +4301,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4305,7 +4322,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4347,7 +4364,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4368,7 +4385,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4389,7 +4406,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4410,7 +4427,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4431,7 +4448,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4452,7 +4469,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4473,7 +4490,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4494,7 +4511,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4515,7 +4532,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4536,7 +4553,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4557,7 +4574,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4578,7 +4595,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4587,7 +4604,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4596,7 +4613,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4605,7 +4622,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4614,7 +4631,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4623,7 +4640,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4632,7 +4649,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4641,7 +4658,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4650,7 +4667,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4659,7 +4676,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4668,7 +4685,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4677,7 +4694,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4686,7 +4703,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4695,7 +4712,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4704,7 +4721,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4713,7 +4730,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4722,7 +4739,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4731,7 +4748,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4740,7 +4757,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4749,7 +4766,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4758,7 +4775,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4767,7 +4784,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4776,7 +4793,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4785,7 +4802,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4794,7 +4811,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4803,7 +4820,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4812,7 +4829,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4821,7 +4838,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4830,7 +4847,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4839,7 +4856,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D689B-26E2-4596-929D-5A7CC859A57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -909,25 +908,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1234,34 +1233,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A20" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1281,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1300,7 +1299,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1321,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1330,7 +1329,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1343,7 +1342,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1360,7 +1359,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1404,7 +1403,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1414,12 +1413,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.25</v>
+        <v>17.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -1441,7 +1440,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -1461,7 +1460,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -1487,7 +1486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -1507,7 +1506,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -1527,7 +1526,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -1547,7 +1546,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>44774</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44805</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -1617,7 +1616,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1639,7 +1638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44835</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44866</v>
       </c>
@@ -1685,7 +1684,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44896</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -1733,7 +1732,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>54</v>
       </c>
@@ -1751,7 +1750,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44927</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44958</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44986</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>55</v>
@@ -1845,7 +1844,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -1867,22 +1866,33 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45017</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="39"/>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="39">
+        <v>1</v>
+      </c>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="48"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="48">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45047</v>
       </c>
@@ -1891,13 +1901,16 @@
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45078</v>
       </c>
@@ -1915,7 +1928,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>45108</v>
       </c>
@@ -1933,7 +1946,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>45139</v>
       </c>
@@ -1951,7 +1964,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>45170</v>
       </c>
@@ -1969,7 +1982,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45200</v>
       </c>
@@ -1987,7 +2000,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45231</v>
       </c>
@@ -2005,7 +2018,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45261</v>
       </c>
@@ -2023,7 +2036,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45292</v>
       </c>
@@ -2041,7 +2054,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45323</v>
       </c>
@@ -2059,7 +2072,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45352</v>
       </c>
@@ -2077,7 +2090,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45383</v>
       </c>
@@ -2095,7 +2108,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45413</v>
       </c>
@@ -2113,7 +2126,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45444</v>
       </c>
@@ -2131,7 +2144,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45474</v>
       </c>
@@ -2149,7 +2162,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45505</v>
       </c>
@@ -2167,7 +2180,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45536</v>
       </c>
@@ -2185,7 +2198,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45566</v>
       </c>
@@ -2203,7 +2216,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45597</v>
       </c>
@@ -2221,7 +2234,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45627</v>
       </c>
@@ -2239,7 +2252,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45658</v>
       </c>
@@ -2257,7 +2270,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45689</v>
       </c>
@@ -2275,7 +2288,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45717</v>
       </c>
@@ -2293,7 +2306,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45748</v>
       </c>
@@ -2311,7 +2324,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45778</v>
       </c>
@@ -2329,7 +2342,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45809</v>
       </c>
@@ -2347,7 +2360,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45839</v>
       </c>
@@ -2365,7 +2378,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45870</v>
       </c>
@@ -2383,7 +2396,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45901</v>
       </c>
@@ -2401,7 +2414,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45931</v>
       </c>
@@ -2419,7 +2432,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45962</v>
       </c>
@@ -2437,7 +2450,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45992</v>
       </c>
@@ -2455,7 +2468,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>46023</v>
       </c>
@@ -2473,7 +2486,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>46054</v>
       </c>
@@ -2491,7 +2504,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>46082</v>
       </c>
@@ -2509,7 +2522,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>46113</v>
       </c>
@@ -2527,7 +2540,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>46143</v>
       </c>
@@ -2545,7 +2558,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>46174</v>
       </c>
@@ -2563,7 +2576,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>46204</v>
       </c>
@@ -2581,7 +2594,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>46235</v>
       </c>
@@ -2599,7 +2612,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>46266</v>
       </c>
@@ -2617,7 +2630,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>46296</v>
       </c>
@@ -2635,7 +2648,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>46327</v>
       </c>
@@ -2653,7 +2666,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>46357</v>
       </c>
@@ -2671,7 +2684,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>46388</v>
       </c>
@@ -2689,7 +2702,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>46419</v>
       </c>
@@ -2707,7 +2720,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>46447</v>
       </c>
@@ -2725,7 +2738,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>46478</v>
       </c>
@@ -2743,7 +2756,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46508</v>
       </c>
@@ -2761,7 +2774,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46539</v>
       </c>
@@ -2779,7 +2792,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46569</v>
       </c>
@@ -2797,7 +2810,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46600</v>
       </c>
@@ -2815,7 +2828,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46631</v>
       </c>
@@ -2833,7 +2846,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46661</v>
       </c>
@@ -2851,7 +2864,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46692</v>
       </c>
@@ -2869,7 +2882,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46722</v>
       </c>
@@ -2887,7 +2900,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46753</v>
       </c>
@@ -2905,7 +2918,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46784</v>
       </c>
@@ -2923,7 +2936,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46813</v>
       </c>
@@ -2941,7 +2954,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46844</v>
       </c>
@@ -2959,7 +2972,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46874</v>
       </c>
@@ -2977,7 +2990,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46905</v>
       </c>
@@ -2995,7 +3008,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46935</v>
       </c>
@@ -3013,7 +3026,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>46966</v>
       </c>
@@ -3031,7 +3044,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>46997</v>
       </c>
@@ -3049,7 +3062,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>47027</v>
       </c>
@@ -3067,7 +3080,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>47058</v>
       </c>
@@ -3085,7 +3098,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>47088</v>
       </c>
@@ -3103,7 +3116,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>47119</v>
       </c>
@@ -3121,7 +3134,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>47150</v>
       </c>
@@ -3139,7 +3152,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>47178</v>
       </c>
@@ -3157,7 +3170,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>47209</v>
       </c>
@@ -3175,7 +3188,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>47239</v>
       </c>
@@ -3193,7 +3206,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>47270</v>
       </c>
@@ -3211,7 +3224,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>47300</v>
       </c>
@@ -3229,7 +3242,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>47331</v>
       </c>
@@ -3247,7 +3260,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>47362</v>
       </c>
@@ -3265,7 +3278,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>47392</v>
       </c>
@@ -3283,7 +3296,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>47423</v>
       </c>
@@ -3301,7 +3314,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>47453</v>
       </c>
@@ -3319,7 +3332,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>47484</v>
       </c>
@@ -3337,7 +3350,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>47515</v>
       </c>
@@ -3355,7 +3368,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>47543</v>
       </c>
@@ -3373,7 +3386,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>47574</v>
       </c>
@@ -3391,7 +3404,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>47604</v>
       </c>
@@ -3409,7 +3422,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>47635</v>
       </c>
@@ -3427,7 +3440,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>47665</v>
       </c>
@@ -3445,7 +3458,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>47696</v>
       </c>
@@ -3463,7 +3476,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>47727</v>
       </c>
@@ -3481,7 +3494,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>47757</v>
       </c>
@@ -3499,7 +3512,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>47788</v>
       </c>
@@ -3517,7 +3530,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>47818</v>
       </c>
@@ -3535,7 +3548,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>47849</v>
       </c>
@@ -3553,7 +3566,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>47880</v>
       </c>
@@ -3571,7 +3584,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>47908</v>
       </c>
@@ -3589,7 +3602,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>47939</v>
       </c>
@@ -3607,7 +3620,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>47969</v>
       </c>
@@ -3625,7 +3638,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>48000</v>
       </c>
@@ -3643,7 +3656,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>48030</v>
       </c>
@@ -3661,7 +3674,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>48061</v>
       </c>
@@ -3679,7 +3692,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>48092</v>
       </c>
@@ -3697,7 +3710,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>48122</v>
       </c>
@@ -3715,7 +3728,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>48153</v>
       </c>
@@ -3733,7 +3746,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>48183</v>
       </c>
@@ -3766,10 +3779,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3792,28 +3805,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3826,7 +3839,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3855,7 +3868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3875,17 +3888,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +3919,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3933,7 +3946,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3959,7 +3972,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3985,7 +3998,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4011,7 +4024,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4037,7 +4050,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4063,7 +4076,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4115,7 +4128,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4135,7 +4148,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4155,7 +4168,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4175,7 +4188,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4196,7 +4209,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4217,7 +4230,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4238,7 +4251,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4259,7 +4272,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4280,7 +4293,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4322,7 +4335,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4343,7 +4356,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4364,7 +4377,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4385,7 +4398,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4427,7 +4440,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4448,7 +4461,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4469,7 +4482,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4490,7 +4503,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4511,7 +4524,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4532,7 +4545,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4553,7 +4566,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4574,7 +4587,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4595,7 +4608,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4604,7 +4617,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4613,7 +4626,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4622,7 +4635,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4631,7 +4644,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4640,7 +4653,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4649,7 +4662,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4658,7 +4671,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4667,7 +4680,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4676,7 +4689,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4685,7 +4698,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4694,7 +4707,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4703,7 +4716,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4712,7 +4725,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4721,7 +4734,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4730,7 +4743,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4739,7 +4752,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4748,7 +4761,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4757,7 +4770,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4766,7 +4779,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4775,7 +4788,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4784,7 +4797,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4793,7 +4806,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4802,7 +4815,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4811,7 +4824,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4820,7 +4833,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4829,7 +4842,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4838,7 +4851,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4847,7 +4860,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4856,7 +4869,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE3DD5E-B6C9-4218-BF5E-251184DE2119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -218,11 +219,14 @@
   <si>
     <t>BAUTISTA, JANICE</t>
   </si>
+  <si>
+    <t>5/26,30/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -908,25 +912,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1233,34 +1237,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A18" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +1285,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1299,7 +1303,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1321,7 +1325,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1329,7 +1333,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1342,7 +1346,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1359,7 +1363,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1403,7 +1407,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1413,12 +1417,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.5</v>
+        <v>18.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1444,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -1460,7 +1464,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -1506,7 +1510,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -1526,7 +1530,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -1546,7 +1550,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>44774</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>44805</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -1616,7 +1620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1638,7 +1642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44835</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44866</v>
       </c>
@@ -1684,7 +1688,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44896</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -1732,7 +1736,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>54</v>
       </c>
@@ -1750,7 +1754,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44927</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44958</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44986</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>55</v>
@@ -1844,7 +1848,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -1866,7 +1870,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>45017</v>
       </c>
@@ -1892,25 +1896,33 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>45047</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="39"/>
+      <c r="B31" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="39">
+        <v>2</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>45078</v>
       </c>
@@ -1928,7 +1940,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>45108</v>
       </c>
@@ -1946,7 +1958,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>45139</v>
       </c>
@@ -1964,7 +1976,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>45170</v>
       </c>
@@ -1982,7 +1994,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>45200</v>
       </c>
@@ -2000,7 +2012,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>45231</v>
       </c>
@@ -2018,7 +2030,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>45261</v>
       </c>
@@ -2036,7 +2048,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>45292</v>
       </c>
@@ -2054,7 +2066,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>45323</v>
       </c>
@@ -2072,7 +2084,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>45352</v>
       </c>
@@ -2090,7 +2102,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>45383</v>
       </c>
@@ -2108,7 +2120,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>45413</v>
       </c>
@@ -2126,7 +2138,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>45444</v>
       </c>
@@ -2144,7 +2156,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>45474</v>
       </c>
@@ -2162,7 +2174,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>45505</v>
       </c>
@@ -2180,7 +2192,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>45536</v>
       </c>
@@ -2198,7 +2210,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45566</v>
       </c>
@@ -2216,7 +2228,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45597</v>
       </c>
@@ -2234,7 +2246,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45627</v>
       </c>
@@ -2252,7 +2264,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>45658</v>
       </c>
@@ -2270,7 +2282,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45689</v>
       </c>
@@ -2288,7 +2300,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>45717</v>
       </c>
@@ -2306,7 +2318,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45748</v>
       </c>
@@ -2324,7 +2336,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>45778</v>
       </c>
@@ -2342,7 +2354,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>45809</v>
       </c>
@@ -2360,7 +2372,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>45839</v>
       </c>
@@ -2378,7 +2390,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>45870</v>
       </c>
@@ -2396,7 +2408,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>45901</v>
       </c>
@@ -2414,7 +2426,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>45931</v>
       </c>
@@ -2432,7 +2444,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>45962</v>
       </c>
@@ -2450,7 +2462,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>45992</v>
       </c>
@@ -2468,7 +2480,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>46023</v>
       </c>
@@ -2486,7 +2498,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>46054</v>
       </c>
@@ -2504,7 +2516,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>46082</v>
       </c>
@@ -2522,7 +2534,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>46113</v>
       </c>
@@ -2540,7 +2552,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>46143</v>
       </c>
@@ -2558,7 +2570,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>46174</v>
       </c>
@@ -2576,7 +2588,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>46204</v>
       </c>
@@ -2594,7 +2606,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>46235</v>
       </c>
@@ -2612,7 +2624,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>46266</v>
       </c>
@@ -2630,7 +2642,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>46296</v>
       </c>
@@ -2648,7 +2660,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>46327</v>
       </c>
@@ -2666,7 +2678,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>46357</v>
       </c>
@@ -2684,7 +2696,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>46388</v>
       </c>
@@ -2702,7 +2714,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>46419</v>
       </c>
@@ -2720,7 +2732,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>46447</v>
       </c>
@@ -2738,7 +2750,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>46478</v>
       </c>
@@ -2756,7 +2768,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>46508</v>
       </c>
@@ -2774,7 +2786,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>46539</v>
       </c>
@@ -2792,7 +2804,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>46569</v>
       </c>
@@ -2810,7 +2822,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>46600</v>
       </c>
@@ -2828,7 +2840,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>46631</v>
       </c>
@@ -2846,7 +2858,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>46661</v>
       </c>
@@ -2864,7 +2876,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>46692</v>
       </c>
@@ -2882,7 +2894,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>46722</v>
       </c>
@@ -2900,7 +2912,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>46753</v>
       </c>
@@ -2918,7 +2930,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>46784</v>
       </c>
@@ -2936,7 +2948,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>46813</v>
       </c>
@@ -2954,7 +2966,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>46844</v>
       </c>
@@ -2972,7 +2984,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>46874</v>
       </c>
@@ -2990,7 +3002,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>46905</v>
       </c>
@@ -3008,7 +3020,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>46935</v>
       </c>
@@ -3026,7 +3038,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>46966</v>
       </c>
@@ -3044,7 +3056,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>46997</v>
       </c>
@@ -3062,7 +3074,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>47027</v>
       </c>
@@ -3080,7 +3092,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>47058</v>
       </c>
@@ -3098,7 +3110,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>47088</v>
       </c>
@@ -3116,7 +3128,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>47119</v>
       </c>
@@ -3134,7 +3146,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>47150</v>
       </c>
@@ -3152,7 +3164,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>47178</v>
       </c>
@@ -3170,7 +3182,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>47209</v>
       </c>
@@ -3188,7 +3200,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>47239</v>
       </c>
@@ -3206,7 +3218,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>47270</v>
       </c>
@@ -3224,7 +3236,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>47300</v>
       </c>
@@ -3242,7 +3254,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>47331</v>
       </c>
@@ -3260,7 +3272,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>47362</v>
       </c>
@@ -3278,7 +3290,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>47392</v>
       </c>
@@ -3296,7 +3308,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>47423</v>
       </c>
@@ -3314,7 +3326,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>47453</v>
       </c>
@@ -3332,7 +3344,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>47484</v>
       </c>
@@ -3350,7 +3362,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>47515</v>
       </c>
@@ -3368,7 +3380,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>47543</v>
       </c>
@@ -3386,7 +3398,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>47574</v>
       </c>
@@ -3404,7 +3416,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>47604</v>
       </c>
@@ -3422,7 +3434,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>47635</v>
       </c>
@@ -3440,7 +3452,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>47665</v>
       </c>
@@ -3458,7 +3470,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>47696</v>
       </c>
@@ -3476,7 +3488,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>47727</v>
       </c>
@@ -3494,7 +3506,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>47757</v>
       </c>
@@ -3512,7 +3524,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>47788</v>
       </c>
@@ -3530,7 +3542,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>47818</v>
       </c>
@@ -3548,7 +3560,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>47849</v>
       </c>
@@ -3566,7 +3578,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>47880</v>
       </c>
@@ -3584,7 +3596,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>47908</v>
       </c>
@@ -3602,7 +3614,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>47939</v>
       </c>
@@ -3620,7 +3632,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>47969</v>
       </c>
@@ -3638,7 +3650,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>48000</v>
       </c>
@@ -3656,7 +3668,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>48030</v>
       </c>
@@ -3674,7 +3686,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>48061</v>
       </c>
@@ -3692,7 +3704,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>48092</v>
       </c>
@@ -3710,7 +3722,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>48122</v>
       </c>
@@ -3728,7 +3740,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>48153</v>
       </c>
@@ -3746,7 +3758,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>48183</v>
       </c>
@@ -3779,10 +3791,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3805,28 +3817,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3839,7 +3851,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3888,17 +3900,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3919,7 +3931,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3972,7 +3984,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -3998,7 +4010,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4024,7 +4036,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4050,7 +4062,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4102,7 +4114,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4128,7 +4140,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4148,7 +4160,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4168,7 +4180,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4188,7 +4200,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4230,7 +4242,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4272,7 +4284,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4293,7 +4305,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4314,7 +4326,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4356,7 +4368,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4440,7 +4452,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4482,7 +4494,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4524,7 +4536,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4545,7 +4557,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4566,7 +4578,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4608,7 +4620,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4617,7 +4629,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4626,7 +4638,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4635,7 +4647,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4644,7 +4656,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4653,7 +4665,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4662,7 +4674,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4671,7 +4683,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4680,7 +4692,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4689,7 +4701,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4698,7 +4710,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4707,7 +4719,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4716,7 +4728,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4725,7 +4737,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4734,7 +4746,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4743,7 +4755,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4752,7 +4764,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4761,7 +4773,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4770,7 +4782,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4779,7 +4791,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4788,7 +4800,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4797,7 +4809,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4806,7 +4818,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4815,7 +4827,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4824,7 +4836,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4833,7 +4845,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4842,7 +4854,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4851,7 +4863,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4860,7 +4872,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4869,7 +4881,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
+++ b/REGULAR/TREASURY/BAUTISTA JANICE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE3DD5E-B6C9-4218-BF5E-251184DE2119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -912,25 +911,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1237,34 +1236,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A27" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A27" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1285,7 +1284,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1302,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1325,7 +1324,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1333,7 +1332,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1346,7 +1345,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1363,7 +1362,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1407,7 +1406,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1417,12 +1416,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.75</v>
+        <v>20</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1443,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44621</v>
       </c>
@@ -1464,7 +1463,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44652</v>
       </c>
@@ -1490,7 +1489,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44682</v>
       </c>
@@ -1510,7 +1509,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>44713</v>
       </c>
@@ -1530,7 +1529,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44743</v>
       </c>
@@ -1550,7 +1549,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>44774</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44805</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>44782</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>46</v>
@@ -1620,7 +1619,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -1642,7 +1641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44835</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44866</v>
       </c>
@@ -1688,7 +1687,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44896</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -1736,7 +1735,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>54</v>
       </c>
@@ -1754,7 +1753,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="48"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44927</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44958</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44986</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>55</v>
@@ -1848,7 +1847,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>46</v>
@@ -1870,7 +1869,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>45017</v>
       </c>
@@ -1896,7 +1895,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>45047</v>
       </c>
@@ -1922,31 +1921,37 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>45078</v>
       </c>
       <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="39"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>45108</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>1</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13" t="str">
@@ -1956,9 +1961,11 @@
       <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="48">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>45139</v>
       </c>
@@ -1976,7 +1983,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>45170</v>
       </c>
@@ -1994,7 +2001,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>45200</v>
       </c>
@@ -2012,7 +2019,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>45231</v>
       </c>
@@ -2030,7 +2037,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>45261</v>
       </c>
@@ -2048,7 +2055,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>45292</v>
       </c>
@@ -2066,7 +2073,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>45323</v>
       </c>
@@ -2084,7 +2091,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>45352</v>
       </c>
@@ -2102,7 +2109,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>45383</v>
       </c>
@@ -2120,7 +2127,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>45413</v>
       </c>
@@ -2138,7 +2145,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>45444</v>
       </c>
@@ -2156,7 +2163,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>45474</v>
       </c>
@@ -2174,7 +2181,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45505</v>
       </c>
@@ -2192,7 +2199,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45536</v>
       </c>
@@ -2210,7 +2217,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45566</v>
       </c>
@@ -2228,7 +2235,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45597</v>
       </c>
@@ -2246,7 +2253,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45627</v>
       </c>
@@ -2264,7 +2271,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45658</v>
       </c>
@@ -2282,7 +2289,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45689</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45717</v>
       </c>
@@ -2318,7 +2325,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45748</v>
       </c>
@@ -2336,7 +2343,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45778</v>
       </c>
@@ -2354,7 +2361,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45809</v>
       </c>
@@ -2372,7 +2379,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45839</v>
       </c>
@@ -2390,7 +2397,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45870</v>
       </c>
@@ -2408,7 +2415,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45901</v>
       </c>
@@ -2426,7 +2433,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45931</v>
       </c>
@@ -2444,7 +2451,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45962</v>
       </c>
@@ -2462,7 +2469,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45992</v>
       </c>
@@ -2480,7 +2487,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>46023</v>
       </c>
@@ -2498,7 +2505,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>46054</v>
       </c>
@@ -2516,7 +2523,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>46082</v>
       </c>
@@ -2534,7 +2541,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>46113</v>
       </c>
@@ -2552,7 +2559,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>46143</v>
       </c>
@@ -2570,7 +2577,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>46174</v>
       </c>
@@ -2588,7 +2595,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>46204</v>
       </c>
@@ -2606,7 +2613,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>46235</v>
       </c>
@@ -2624,7 +2631,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>46266</v>
       </c>
@@ -2642,7 +2649,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>46296</v>
       </c>
@@ -2660,7 +2667,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>46327</v>
       </c>
@@ -2678,7 +2685,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>46357</v>
       </c>
@@ -2696,7 +2703,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>46388</v>
       </c>
@@ -2714,7 +2721,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>46419</v>
       </c>
@@ -2732,7 +2739,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>46447</v>
       </c>
@@ -2750,7 +2757,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>46478</v>
       </c>
@@ -2768,7 +2775,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46508</v>
       </c>
@@ -2786,7 +2793,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46539</v>
       </c>
@@ -2804,7 +2811,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46569</v>
       </c>
@@ -2822,7 +2829,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46600</v>
       </c>
@@ -2840,7 +2847,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46631</v>
       </c>
@@ -2858,7 +2865,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46661</v>
       </c>
@@ -2876,7 +2883,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46692</v>
       </c>
@@ -2894,7 +2901,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46722</v>
       </c>
@@ -2912,7 +2919,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46753</v>
       </c>
@@ -2930,7 +2937,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46784</v>
       </c>
@@ -2948,7 +2955,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46813</v>
       </c>
@@ -2966,7 +2973,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46844</v>
       </c>
@@ -2984,7 +2991,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46874</v>
       </c>
@@ -3002,7 +3009,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46905</v>
       </c>
@@ -3020,7 +3027,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46935</v>
       </c>
@@ -3038,7 +3045,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>46966</v>
       </c>
@@ -3056,7 +3063,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>46997</v>
       </c>
@@ -3074,7 +3081,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>47027</v>
       </c>
@@ -3092,7 +3099,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>47058</v>
       </c>
@@ -3110,7 +3117,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>47088</v>
       </c>
@@ -3128,7 +3135,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>47119</v>
       </c>
@@ -3146,7 +3153,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>47150</v>
       </c>
@@ -3164,7 +3171,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>47178</v>
       </c>
@@ -3182,7 +3189,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>47209</v>
       </c>
@@ -3200,7 +3207,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>47239</v>
       </c>
@@ -3218,7 +3225,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>47270</v>
       </c>
@@ -3236,7 +3243,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>47300</v>
       </c>
@@ -3254,7 +3261,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>47331</v>
       </c>
@@ -3272,7 +3279,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>47362</v>
       </c>
@@ -3290,7 +3297,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>47392</v>
       </c>
@@ -3308,7 +3315,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>47423</v>
       </c>
@@ -3326,7 +3333,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>47453</v>
       </c>
@@ -3344,7 +3351,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>47484</v>
       </c>
@@ -3362,7 +3369,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>47515</v>
       </c>
@@ -3380,7 +3387,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>47543</v>
       </c>
@@ -3398,7 +3405,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>47574</v>
       </c>
@@ -3416,7 +3423,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>47604</v>
       </c>
@@ -3434,7 +3441,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>47635</v>
       </c>
@@ -3452,7 +3459,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>47665</v>
       </c>
@@ -3470,7 +3477,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>47696</v>
       </c>
@@ -3488,7 +3495,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>47727</v>
       </c>
@@ -3506,7 +3513,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>47757</v>
       </c>
@@ -3524,7 +3531,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>47788</v>
       </c>
@@ -3542,7 +3549,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>47818</v>
       </c>
@@ -3560,7 +3567,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>47849</v>
       </c>
@@ -3578,7 +3585,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>47880</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>47908</v>
       </c>
@@ -3614,7 +3621,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>47939</v>
       </c>
@@ -3632,7 +3639,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>47969</v>
       </c>
@@ -3650,7 +3657,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>48000</v>
       </c>
@@ -3668,7 +3675,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>48030</v>
       </c>
@@ -3686,7 +3693,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>48061</v>
       </c>
@@ -3704,7 +3711,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>48092</v>
       </c>
@@ -3722,7 +3729,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>48122</v>
       </c>
@@ -3740,7 +3747,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>48153</v>
       </c>
@@ -3758,7 +3765,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>48183</v>
       </c>
@@ -3791,10 +3798,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3817,28 +3824,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3851,7 +3858,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3880,7 +3887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3900,17 +3907,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3931,7 +3938,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -3958,7 +3965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -3984,7 +3991,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4010,7 +4017,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4062,7 +4069,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4088,7 +4095,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4114,7 +4121,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4140,7 +4147,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4160,7 +4167,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4200,7 +4207,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4221,7 +4228,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4242,7 +4249,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4284,7 +4291,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4305,7 +4312,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4347,7 +4354,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4368,7 +4375,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4389,7 +4396,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4452,7 +4459,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4473,7 +4480,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4494,7 +4501,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4515,7 +4522,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4536,7 +4543,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4578,7 +4585,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4599,7 +4606,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4620,7 +4627,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4629,7 +4636,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4638,7 +4645,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4647,7 +4654,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4656,7 +4663,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4665,7 +4672,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4674,7 +4681,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4683,7 +4690,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4692,7 +4699,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4701,7 +4708,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4710,7 +4717,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4719,7 +4726,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4728,7 +4735,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -4737,7 +4744,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -4746,7 +4753,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -4755,7 +4762,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -4764,7 +4771,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -4773,7 +4780,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -4782,7 +4789,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -4791,7 +4798,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -4800,7 +4807,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -4809,7 +4816,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -4818,7 +4825,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -4827,7 +4834,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -4836,7 +4843,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -4845,7 +4852,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -4854,7 +4861,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -4863,7 +4870,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -4872,7 +4879,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -4881,7 +4888,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
